--- a/templates/Prestart.xlsx
+++ b/templates/Prestart.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GPM\www\GPM-TEST\lib\PHPExcel\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9C533C-6B96-4238-A94A-C332E2935639}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="9255" windowHeight="5505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="80" windowWidth="9260" windowHeight="5510"/>
   </bookViews>
   <sheets>
     <sheet name="DAILYCHECK" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">DAILYCHECK!$A$1:$R$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'DAILYCHECK OLD'!$A$1:$O$53</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -207,9 +206,6 @@
     </r>
   </si>
   <si>
-    <t>Load Cell</t>
-  </si>
-  <si>
     <t>Shunt Cal (V)</t>
   </si>
   <si>
@@ -253,12 +249,15 @@
   </si>
   <si>
     <t>CHECKLIST - 13350-1</t>
+  </si>
+  <si>
+    <t>Load Cell Cap. &amp; Cal.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -1153,7 +1152,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -1430,6 +1429,33 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1457,38 +1483,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1518,7 +1520,7 @@
         <xdr:cNvPr id="4" name="Image 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECD9FF6-3D0A-4ACE-8190-077059D4D43A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AECD9FF6-3D0A-4ACE-8190-077059D4D43A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1570,7 @@
         <xdr:cNvPr id="8" name="Image 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42FD85E2-5740-4459-9C54-A3A33862899A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42FD85E2-5740-4459-9C54-A3A33862899A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,7 +1636,7 @@
         <xdr:cNvPr id="1054" name="Picture 1" descr="Logo Metcut">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2013,25 +2015,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.7109375" style="81" customWidth="1"/>
-    <col min="3" max="16" width="5.7109375" style="81" customWidth="1"/>
-    <col min="17" max="18" width="6.7109375" style="81" customWidth="1"/>
-    <col min="19" max="19" width="1.28515625" style="81" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" style="81"/>
-    <col min="21" max="16384" width="10.85546875" style="82"/>
+    <col min="1" max="2" width="6.7265625" style="81" customWidth="1"/>
+    <col min="3" max="16" width="5.7265625" style="81" customWidth="1"/>
+    <col min="17" max="18" width="6.7265625" style="81" customWidth="1"/>
+    <col min="19" max="19" width="1.26953125" style="81" customWidth="1"/>
+    <col min="20" max="20" width="10.81640625" style="81"/>
+    <col min="21" max="16384" width="10.81640625" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:26" ht="60.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:26" ht="60.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="83" t="s">
         <v>40</v>
       </c>
@@ -2049,10 +2051,10 @@
       <c r="O2" s="84"/>
       <c r="P2" s="85"/>
       <c r="Q2" s="111" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="86" t="s">
         <v>41</v>
       </c>
@@ -2065,29 +2067,29 @@
         <v>43</v>
       </c>
       <c r="F3" s="88"/>
-      <c r="G3" s="86" t="s">
-        <v>44</v>
+      <c r="G3" s="132" t="s">
+        <v>59</v>
       </c>
       <c r="H3" s="89"/>
       <c r="I3" s="86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3" s="89"/>
       <c r="K3" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="90" t="s">
         <v>46</v>
-      </c>
-      <c r="L3" s="90" t="s">
-        <v>47</v>
       </c>
       <c r="M3" s="86"/>
       <c r="N3" s="91"/>
       <c r="O3" s="86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P3" s="86"/>
       <c r="Q3" s="111"/>
     </row>
-    <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="92"/>
       <c r="B4" s="92"/>
       <c r="C4" s="92"/>
@@ -2109,9 +2111,9 @@
       <c r="W4" s="87"/>
       <c r="X4" s="84"/>
     </row>
-    <row r="5" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="109"/>
       <c r="C5" s="109"/>
@@ -2121,11 +2123,11 @@
       <c r="G5" s="96"/>
       <c r="H5" s="97"/>
       <c r="I5" s="98" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5" s="88"/>
       <c r="K5" s="99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L5" s="100"/>
       <c r="M5" s="94"/>
@@ -2133,17 +2135,17 @@
       <c r="W5" s="100"/>
       <c r="X5" s="94"/>
     </row>
-    <row r="6" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="86" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="86"/>
       <c r="C6" s="86" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="86"/>
       <c r="E6" s="86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86" t="s">
@@ -2151,7 +2153,7 @@
       </c>
       <c r="H6" s="86"/>
       <c r="I6" s="86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" s="86"/>
       <c r="K6" s="86" t="s">
@@ -2170,7 +2172,7 @@
       <c r="W6" s="100"/>
       <c r="X6" s="81"/>
     </row>
-    <row r="7" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="94" t="s">
         <v>24</v>
       </c>
@@ -2188,7 +2190,7 @@
       </c>
       <c r="H7" s="94"/>
       <c r="I7" s="92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" s="92"/>
       <c r="K7" s="94" t="s">
@@ -2196,7 +2198,7 @@
       </c>
       <c r="L7" s="94"/>
       <c r="M7" s="92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N7" s="92"/>
       <c r="O7" s="94" t="s">
@@ -2207,17 +2209,17 @@
       <c r="W7" s="100"/>
       <c r="X7" s="94"/>
     </row>
-    <row r="8" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="105" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="105"/>
       <c r="D9" s="105" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="105"/>
       <c r="F9" s="105"/>
@@ -2241,10 +2243,10 @@
         <v>8</v>
       </c>
       <c r="R9" s="105" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="101" t="s">
         <v>16</v>
       </c>
@@ -2280,7 +2282,7 @@
       <c r="V10" s="86"/>
       <c r="W10" s="86"/>
     </row>
-    <row r="11" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="101" t="s">
         <v>16</v>
       </c>
@@ -2316,7 +2318,7 @@
       <c r="V11" s="86"/>
       <c r="W11" s="86"/>
     </row>
-    <row r="12" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="101" t="s">
         <v>16</v>
       </c>
@@ -2352,7 +2354,7 @@
       <c r="V12" s="94"/>
       <c r="W12" s="92"/>
     </row>
-    <row r="13" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="101" t="s">
         <v>16</v>
       </c>
@@ -2389,7 +2391,7 @@
       <c r="W13" s="92"/>
       <c r="X13" s="100"/>
     </row>
-    <row r="14" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="101" t="s">
         <v>16</v>
       </c>
@@ -2428,7 +2430,7 @@
       <c r="Y14" s="95"/>
       <c r="Z14" s="95"/>
     </row>
-    <row r="15" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="101" t="s">
         <v>16</v>
       </c>
@@ -2467,7 +2469,7 @@
       <c r="Y15" s="93"/>
       <c r="Z15" s="81"/>
     </row>
-    <row r="16" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="101" t="s">
         <v>16</v>
       </c>
@@ -2501,7 +2503,7 @@
       </c>
       <c r="R16" s="102"/>
     </row>
-    <row r="17" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="101" t="s">
         <v>16</v>
       </c>
@@ -2535,7 +2537,7 @@
       </c>
       <c r="R17" s="102"/>
     </row>
-    <row r="18" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="101" t="s">
         <v>16</v>
       </c>
@@ -2569,7 +2571,7 @@
       </c>
       <c r="R18" s="102"/>
     </row>
-    <row r="19" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="101" t="s">
         <v>16</v>
       </c>
@@ -2603,7 +2605,7 @@
       </c>
       <c r="R19" s="102"/>
     </row>
-    <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="101" t="s">
         <v>16</v>
       </c>
@@ -2637,7 +2639,7 @@
       </c>
       <c r="R20" s="102"/>
     </row>
-    <row r="21" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="101" t="s">
         <v>16</v>
       </c>
@@ -2671,7 +2673,7 @@
       </c>
       <c r="R21" s="102"/>
     </row>
-    <row r="22" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="101" t="s">
         <v>16</v>
       </c>
@@ -2705,7 +2707,7 @@
       </c>
       <c r="R22" s="102"/>
     </row>
-    <row r="23" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="101" t="s">
         <v>16</v>
       </c>
@@ -2739,7 +2741,7 @@
       </c>
       <c r="R23" s="102"/>
     </row>
-    <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="101" t="s">
         <v>16</v>
       </c>
@@ -2773,7 +2775,7 @@
       </c>
       <c r="R24" s="102"/>
     </row>
-    <row r="25" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="101" t="s">
         <v>16</v>
       </c>
@@ -2807,7 +2809,7 @@
       </c>
       <c r="R25" s="102"/>
     </row>
-    <row r="26" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="101" t="s">
         <v>16</v>
       </c>
@@ -2841,7 +2843,7 @@
       </c>
       <c r="R26" s="102"/>
     </row>
-    <row r="27" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="101" t="s">
         <v>16</v>
       </c>
@@ -2875,7 +2877,7 @@
       </c>
       <c r="R27" s="102"/>
     </row>
-    <row r="28" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="101" t="s">
         <v>16</v>
       </c>
@@ -2909,7 +2911,7 @@
       </c>
       <c r="R28" s="102"/>
     </row>
-    <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="101" t="s">
         <v>16</v>
       </c>
@@ -2943,7 +2945,7 @@
       </c>
       <c r="R29" s="102"/>
     </row>
-    <row r="30" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="101"/>
       <c r="B30" s="101" t="s">
         <v>2</v>
@@ -2975,7 +2977,7 @@
       </c>
       <c r="R30" s="102"/>
     </row>
-    <row r="31" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="101"/>
       <c r="B31" s="101" t="s">
         <v>2</v>
@@ -3007,7 +3009,7 @@
       </c>
       <c r="R31" s="102"/>
     </row>
-    <row r="32" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="101"/>
       <c r="B32" s="101" t="s">
         <v>2</v>
@@ -3039,7 +3041,7 @@
       </c>
       <c r="R32" s="102"/>
     </row>
-    <row r="33" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="101"/>
       <c r="B33" s="101" t="s">
         <v>2</v>
@@ -3071,7 +3073,7 @@
       </c>
       <c r="R33" s="102"/>
     </row>
-    <row r="34" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="101"/>
       <c r="B34" s="101" t="s">
         <v>2</v>
@@ -3103,7 +3105,7 @@
       </c>
       <c r="R34" s="102"/>
     </row>
-    <row r="35" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="101"/>
       <c r="B35" s="101" t="s">
         <v>2</v>
@@ -3135,7 +3137,7 @@
       </c>
       <c r="R35" s="102"/>
     </row>
-    <row r="36" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="101"/>
       <c r="B36" s="101" t="s">
         <v>2</v>
@@ -3167,7 +3169,7 @@
       </c>
       <c r="R36" s="102"/>
     </row>
-    <row r="37" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="101"/>
       <c r="B37" s="101" t="s">
         <v>2</v>
@@ -3199,7 +3201,7 @@
       </c>
       <c r="R37" s="102"/>
     </row>
-    <row r="38" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="101"/>
       <c r="B38" s="101" t="s">
         <v>2</v>
@@ -3231,7 +3233,7 @@
       </c>
       <c r="R38" s="102"/>
     </row>
-    <row r="39" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="101"/>
       <c r="B39" s="101" t="s">
         <v>2</v>
@@ -3263,7 +3265,7 @@
       </c>
       <c r="R39" s="102"/>
     </row>
-    <row r="40" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="101"/>
       <c r="B40" s="101" t="s">
         <v>2</v>
@@ -3295,7 +3297,7 @@
       </c>
       <c r="R40" s="102"/>
     </row>
-    <row r="41" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="101" t="s">
         <v>16</v>
       </c>
@@ -3329,7 +3331,7 @@
       </c>
       <c r="R41" s="102"/>
     </row>
-    <row r="42" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="101" t="s">
         <v>16</v>
       </c>
@@ -3363,7 +3365,7 @@
       </c>
       <c r="R42" s="102"/>
     </row>
-    <row r="43" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="101" t="s">
         <v>16</v>
       </c>
@@ -3397,7 +3399,7 @@
       </c>
       <c r="R43" s="102"/>
     </row>
-    <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="103"/>
       <c r="B44" s="103"/>
       <c r="C44" s="103"/>
@@ -3417,7 +3419,7 @@
       <c r="Q44" s="103"/>
       <c r="R44" s="104"/>
     </row>
-    <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="103"/>
       <c r="B45" s="103"/>
       <c r="C45" s="103"/>
@@ -3437,7 +3439,7 @@
       <c r="Q45" s="103"/>
       <c r="R45" s="104"/>
     </row>
-    <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="103"/>
       <c r="B46" s="103"/>
       <c r="C46" s="103"/>
@@ -3457,7 +3459,7 @@
       <c r="Q46" s="103"/>
       <c r="R46" s="104"/>
     </row>
-    <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="103"/>
       <c r="B47" s="103"/>
       <c r="C47" s="103"/>
@@ -3477,7 +3479,7 @@
       <c r="Q47" s="103"/>
       <c r="R47" s="104"/>
     </row>
-    <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="103"/>
       <c r="B48" s="103"/>
       <c r="C48" s="103"/>
@@ -3497,7 +3499,7 @@
       <c r="Q48" s="103"/>
       <c r="R48" s="104"/>
     </row>
-    <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="103"/>
       <c r="B49" s="103"/>
       <c r="C49" s="103"/>
@@ -3517,7 +3519,7 @@
       <c r="Q49" s="103"/>
       <c r="R49" s="104"/>
     </row>
-    <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="103"/>
       <c r="B50" s="103"/>
       <c r="C50" s="103"/>
@@ -3537,7 +3539,7 @@
       <c r="Q50" s="103"/>
       <c r="R50" s="104"/>
     </row>
-    <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="103"/>
       <c r="B51" s="103"/>
       <c r="C51" s="103"/>
@@ -3575,42 +3577,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D49" sqref="D49:E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="6.85546875" style="3" customWidth="1"/>
-    <col min="5" max="8" width="11.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="1.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.54296875" style="3" customWidth="1"/>
+    <col min="3" max="4" width="6.81640625" style="3" customWidth="1"/>
+    <col min="5" max="8" width="11.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.453125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" style="2" customWidth="1"/>
     <col min="14" max="15" width="9" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="2"/>
+    <col min="16" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="G1" s="4"/>
       <c r="M1" s="5"/>
       <c r="O1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M2" s="5"/>
       <c r="O2" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.5">
       <c r="A3" s="30" t="s">
         <v>7</v>
       </c>
@@ -3629,7 +3631,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:17" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.5">
       <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
@@ -3648,17 +3650,17 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N5" s="72"/>
     </row>
-    <row r="6" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="10" customFormat="1" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
       <c r="F6" s="73"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -3667,11 +3669,11 @@
       <c r="L6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-    </row>
-    <row r="7" spans="1:17" s="10" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+    </row>
+    <row r="7" spans="1:17" s="10" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -3684,13 +3686,13 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="10" customFormat="1" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A8" s="13"/>
       <c r="B8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
       <c r="E8" s="14"/>
       <c r="F8" s="26" t="s">
         <v>11</v>
@@ -3709,7 +3711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="10" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" s="10" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="11"/>
       <c r="C9" s="74"/>
@@ -3726,7 +3728,7 @@
       <c r="N9" s="11"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="10" customFormat="1" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A10" s="29"/>
       <c r="B10" s="28"/>
       <c r="C10" s="75" t="s">
@@ -3757,13 +3759,13 @@
       </c>
       <c r="O10" s="25"/>
     </row>
-    <row r="11" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" s="10" customFormat="1" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A11" s="48" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="45"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="122"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="131"/>
       <c r="E11" s="78"/>
       <c r="F11" s="40"/>
       <c r="G11" s="39"/>
@@ -3784,13 +3786,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="10" customFormat="1" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A12" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="46"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="129"/>
       <c r="E12" s="79"/>
       <c r="F12" s="42"/>
       <c r="G12" s="41"/>
@@ -3811,13 +3813,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" s="10" customFormat="1" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A13" s="50" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="47"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="118"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="80"/>
       <c r="F13" s="44"/>
       <c r="G13" s="43"/>
@@ -3841,7 +3843,7 @@
       </c>
       <c r="Q13" s="24"/>
     </row>
-    <row r="14" spans="1:17" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="11"/>
       <c r="C14" s="73"/>
@@ -3858,7 +3860,7 @@
       <c r="N14" s="17"/>
       <c r="O14" s="18"/>
     </row>
-    <row r="15" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" s="10" customFormat="1" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A15" s="29" t="s">
         <v>15</v>
       </c>
@@ -3889,7 +3891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="10" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" s="10" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -3906,12 +3908,12 @@
       <c r="N16" s="20"/>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" spans="1:15" s="10" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" s="10" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:15" s="10" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" s="10" customFormat="1" ht="30.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="32" t="s">
         <v>16</v>
       </c>
@@ -3944,617 +3946,713 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="60"/>
-      <c r="B19" s="131"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="127"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="61"/>
       <c r="G19" s="71"/>
       <c r="H19" s="57"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="127"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="121"/>
       <c r="N19" s="61"/>
       <c r="O19" s="62"/>
     </row>
-    <row r="20" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="63"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="124"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="64"/>
       <c r="G20" s="69"/>
       <c r="H20" s="58"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="124"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="115"/>
       <c r="N20" s="64"/>
       <c r="O20" s="65"/>
     </row>
-    <row r="21" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="63"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
       <c r="F21" s="64"/>
       <c r="G21" s="69"/>
       <c r="H21" s="58"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="124"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="115"/>
       <c r="N21" s="64"/>
       <c r="O21" s="65"/>
     </row>
-    <row r="22" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="63"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="124"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="115"/>
       <c r="F22" s="64"/>
       <c r="G22" s="69"/>
       <c r="H22" s="58"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="124"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="115"/>
       <c r="N22" s="64"/>
       <c r="O22" s="65"/>
     </row>
-    <row r="23" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="63"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="124"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="115"/>
       <c r="F23" s="64"/>
       <c r="G23" s="69"/>
       <c r="H23" s="58"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="124"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="115"/>
       <c r="N23" s="64"/>
       <c r="O23" s="65"/>
     </row>
-    <row r="24" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="63"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="124"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="115"/>
       <c r="F24" s="64"/>
       <c r="G24" s="69"/>
       <c r="H24" s="58"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="123"/>
-      <c r="M24" s="124"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="115"/>
       <c r="N24" s="64"/>
       <c r="O24" s="65"/>
     </row>
-    <row r="25" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="63"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="124"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="64"/>
       <c r="G25" s="69"/>
       <c r="H25" s="58"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="124"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="115"/>
       <c r="N25" s="64"/>
       <c r="O25" s="65"/>
     </row>
-    <row r="26" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="63"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="124"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="115"/>
       <c r="F26" s="64"/>
       <c r="G26" s="69"/>
       <c r="H26" s="58"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="124"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="115"/>
       <c r="N26" s="64"/>
       <c r="O26" s="65"/>
     </row>
-    <row r="27" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="63"/>
-      <c r="B27" s="125"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="124"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="115"/>
       <c r="F27" s="64"/>
       <c r="G27" s="69"/>
       <c r="H27" s="58"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="124"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="115"/>
       <c r="N27" s="64"/>
       <c r="O27" s="65"/>
     </row>
-    <row r="28" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="63"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="124"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="115"/>
       <c r="F28" s="64"/>
       <c r="G28" s="69"/>
       <c r="H28" s="58"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="124"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="115"/>
       <c r="N28" s="64"/>
       <c r="O28" s="65"/>
     </row>
-    <row r="29" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="63"/>
-      <c r="B29" s="125"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="124"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="115"/>
       <c r="F29" s="64"/>
       <c r="G29" s="69"/>
       <c r="H29" s="58"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="124"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="115"/>
       <c r="N29" s="64"/>
       <c r="O29" s="65"/>
     </row>
-    <row r="30" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="63"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="124"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="115"/>
       <c r="F30" s="64"/>
       <c r="G30" s="69"/>
       <c r="H30" s="58"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="123"/>
-      <c r="M30" s="124"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="115"/>
       <c r="N30" s="64"/>
       <c r="O30" s="65"/>
     </row>
-    <row r="31" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="63"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="124"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="115"/>
       <c r="F31" s="64"/>
       <c r="G31" s="69"/>
       <c r="H31" s="58"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="124"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="115"/>
       <c r="N31" s="64"/>
       <c r="O31" s="65"/>
     </row>
-    <row r="32" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="63"/>
-      <c r="B32" s="125"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="124"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="115"/>
       <c r="F32" s="64"/>
       <c r="G32" s="69"/>
       <c r="H32" s="58"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="124"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="115"/>
       <c r="N32" s="64"/>
       <c r="O32" s="65"/>
     </row>
-    <row r="33" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="63"/>
-      <c r="B33" s="125"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="124"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="115"/>
       <c r="F33" s="64"/>
       <c r="G33" s="69"/>
       <c r="H33" s="58"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="124"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="115"/>
       <c r="N33" s="64"/>
       <c r="O33" s="65"/>
     </row>
-    <row r="34" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="63"/>
-      <c r="B34" s="125"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="124"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="115"/>
       <c r="F34" s="64"/>
       <c r="G34" s="69"/>
       <c r="H34" s="58"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="125"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="124"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="115"/>
       <c r="N34" s="64"/>
       <c r="O34" s="65"/>
     </row>
-    <row r="35" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="63"/>
-      <c r="B35" s="125"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="124"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="115"/>
       <c r="F35" s="64"/>
       <c r="G35" s="69"/>
       <c r="H35" s="58"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="124"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="124"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="115"/>
       <c r="N35" s="64"/>
       <c r="O35" s="65"/>
     </row>
-    <row r="36" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="63"/>
-      <c r="B36" s="125"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="124"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="115"/>
       <c r="F36" s="64"/>
       <c r="G36" s="69"/>
       <c r="H36" s="58"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="124"/>
-      <c r="K36" s="125"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="124"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="118"/>
+      <c r="M36" s="115"/>
       <c r="N36" s="64"/>
       <c r="O36" s="65"/>
     </row>
-    <row r="37" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="63"/>
-      <c r="B37" s="125"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="124"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="115"/>
       <c r="F37" s="64"/>
       <c r="G37" s="69"/>
       <c r="H37" s="58"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="124"/>
-      <c r="K37" s="125"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="124"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="114"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="115"/>
       <c r="N37" s="64"/>
       <c r="O37" s="65"/>
     </row>
-    <row r="38" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="63"/>
-      <c r="B38" s="125"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="124"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="115"/>
       <c r="F38" s="64"/>
       <c r="G38" s="69"/>
       <c r="H38" s="58"/>
-      <c r="I38" s="123"/>
-      <c r="J38" s="124"/>
-      <c r="K38" s="125"/>
-      <c r="L38" s="123"/>
-      <c r="M38" s="124"/>
+      <c r="I38" s="118"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="115"/>
       <c r="N38" s="64"/>
       <c r="O38" s="65"/>
     </row>
-    <row r="39" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="63"/>
-      <c r="B39" s="125"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="124"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="115"/>
       <c r="F39" s="64"/>
       <c r="G39" s="69"/>
       <c r="H39" s="58"/>
-      <c r="I39" s="123"/>
-      <c r="J39" s="124"/>
-      <c r="K39" s="125"/>
-      <c r="L39" s="123"/>
-      <c r="M39" s="124"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="114"/>
+      <c r="L39" s="118"/>
+      <c r="M39" s="115"/>
       <c r="N39" s="64"/>
       <c r="O39" s="65"/>
     </row>
-    <row r="40" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="63"/>
-      <c r="B40" s="125"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="124"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="115"/>
       <c r="F40" s="64"/>
       <c r="G40" s="69"/>
       <c r="H40" s="58"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="125"/>
-      <c r="L40" s="123"/>
-      <c r="M40" s="124"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="118"/>
+      <c r="M40" s="115"/>
       <c r="N40" s="64"/>
       <c r="O40" s="65"/>
     </row>
-    <row r="41" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="63"/>
-      <c r="B41" s="125"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="124"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="115"/>
       <c r="F41" s="64"/>
       <c r="G41" s="69"/>
       <c r="H41" s="58"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="125"/>
-      <c r="L41" s="123"/>
-      <c r="M41" s="124"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="115"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="118"/>
+      <c r="M41" s="115"/>
       <c r="N41" s="64"/>
       <c r="O41" s="65"/>
     </row>
-    <row r="42" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="63"/>
-      <c r="B42" s="125"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="124"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="115"/>
       <c r="F42" s="64"/>
       <c r="G42" s="69"/>
       <c r="H42" s="58"/>
-      <c r="I42" s="123"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="125"/>
-      <c r="L42" s="123"/>
-      <c r="M42" s="124"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="115"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="118"/>
+      <c r="M42" s="115"/>
       <c r="N42" s="64"/>
       <c r="O42" s="65"/>
     </row>
-    <row r="43" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="63"/>
-      <c r="B43" s="125"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="124"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="115"/>
       <c r="F43" s="64"/>
       <c r="G43" s="69"/>
       <c r="H43" s="58"/>
-      <c r="I43" s="123"/>
-      <c r="J43" s="124"/>
-      <c r="K43" s="125"/>
-      <c r="L43" s="123"/>
-      <c r="M43" s="124"/>
+      <c r="I43" s="118"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="118"/>
+      <c r="M43" s="115"/>
       <c r="N43" s="64"/>
       <c r="O43" s="65"/>
     </row>
-    <row r="44" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="63"/>
-      <c r="B44" s="125"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="124"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="115"/>
       <c r="F44" s="64"/>
       <c r="G44" s="69"/>
       <c r="H44" s="58"/>
-      <c r="I44" s="123"/>
-      <c r="J44" s="124"/>
-      <c r="K44" s="125"/>
-      <c r="L44" s="123"/>
-      <c r="M44" s="124"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="118"/>
+      <c r="M44" s="115"/>
       <c r="N44" s="64"/>
       <c r="O44" s="65"/>
     </row>
-    <row r="45" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="63"/>
-      <c r="B45" s="125"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="124"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="115"/>
       <c r="F45" s="64"/>
       <c r="G45" s="69"/>
       <c r="H45" s="58"/>
-      <c r="I45" s="123"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="125"/>
-      <c r="L45" s="123"/>
-      <c r="M45" s="124"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="118"/>
+      <c r="M45" s="115"/>
       <c r="N45" s="64"/>
       <c r="O45" s="65"/>
     </row>
-    <row r="46" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="63"/>
-      <c r="B46" s="125"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="124"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="115"/>
       <c r="F46" s="64"/>
       <c r="G46" s="69"/>
       <c r="H46" s="58"/>
-      <c r="I46" s="123"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="125"/>
-      <c r="L46" s="123"/>
-      <c r="M46" s="124"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="115"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="118"/>
+      <c r="M46" s="115"/>
       <c r="N46" s="64"/>
       <c r="O46" s="65"/>
     </row>
-    <row r="47" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="63"/>
-      <c r="B47" s="125"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="124"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="115"/>
       <c r="F47" s="64"/>
       <c r="G47" s="69"/>
       <c r="H47" s="58"/>
-      <c r="I47" s="123"/>
-      <c r="J47" s="124"/>
-      <c r="K47" s="125"/>
-      <c r="L47" s="123"/>
-      <c r="M47" s="124"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="115"/>
+      <c r="K47" s="114"/>
+      <c r="L47" s="118"/>
+      <c r="M47" s="115"/>
       <c r="N47" s="64"/>
       <c r="O47" s="65"/>
     </row>
-    <row r="48" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="63"/>
-      <c r="B48" s="125"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="124"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="115"/>
       <c r="F48" s="64"/>
       <c r="G48" s="69"/>
       <c r="H48" s="58"/>
-      <c r="I48" s="123"/>
-      <c r="J48" s="124"/>
-      <c r="K48" s="125"/>
-      <c r="L48" s="123"/>
-      <c r="M48" s="124"/>
+      <c r="I48" s="118"/>
+      <c r="J48" s="115"/>
+      <c r="K48" s="114"/>
+      <c r="L48" s="118"/>
+      <c r="M48" s="115"/>
       <c r="N48" s="64"/>
       <c r="O48" s="65"/>
     </row>
-    <row r="49" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="63"/>
-      <c r="B49" s="125"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="124"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="115"/>
       <c r="F49" s="64"/>
       <c r="G49" s="69"/>
       <c r="H49" s="58"/>
-      <c r="I49" s="123"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="125"/>
-      <c r="L49" s="123"/>
-      <c r="M49" s="124"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="115"/>
+      <c r="K49" s="114"/>
+      <c r="L49" s="118"/>
+      <c r="M49" s="115"/>
       <c r="N49" s="64"/>
       <c r="O49" s="65"/>
     </row>
-    <row r="50" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="63"/>
-      <c r="B50" s="125"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="124"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="115"/>
       <c r="F50" s="64"/>
       <c r="G50" s="69"/>
       <c r="H50" s="58"/>
-      <c r="I50" s="123"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="125"/>
-      <c r="L50" s="123"/>
-      <c r="M50" s="124"/>
+      <c r="I50" s="118"/>
+      <c r="J50" s="115"/>
+      <c r="K50" s="114"/>
+      <c r="L50" s="118"/>
+      <c r="M50" s="115"/>
       <c r="N50" s="64"/>
       <c r="O50" s="65"/>
     </row>
-    <row r="51" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="63"/>
-      <c r="B51" s="125"/>
-      <c r="C51" s="124"/>
-      <c r="D51" s="125"/>
-      <c r="E51" s="124"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="115"/>
       <c r="F51" s="64"/>
       <c r="G51" s="69"/>
       <c r="H51" s="58"/>
-      <c r="I51" s="123"/>
-      <c r="J51" s="124"/>
-      <c r="K51" s="125"/>
-      <c r="L51" s="123"/>
-      <c r="M51" s="124"/>
+      <c r="I51" s="118"/>
+      <c r="J51" s="115"/>
+      <c r="K51" s="114"/>
+      <c r="L51" s="118"/>
+      <c r="M51" s="115"/>
       <c r="N51" s="64"/>
       <c r="O51" s="65"/>
     </row>
-    <row r="52" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="63"/>
-      <c r="B52" s="125"/>
-      <c r="C52" s="124"/>
-      <c r="D52" s="125"/>
-      <c r="E52" s="124"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="115"/>
       <c r="F52" s="64"/>
       <c r="G52" s="69"/>
       <c r="H52" s="58"/>
-      <c r="I52" s="123"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="125"/>
-      <c r="L52" s="123"/>
-      <c r="M52" s="124"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="115"/>
+      <c r="K52" s="114"/>
+      <c r="L52" s="118"/>
+      <c r="M52" s="115"/>
       <c r="N52" s="64"/>
       <c r="O52" s="65"/>
     </row>
-    <row r="53" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="66"/>
-      <c r="B53" s="130"/>
-      <c r="C53" s="129"/>
-      <c r="D53" s="130"/>
-      <c r="E53" s="129"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="117"/>
       <c r="F53" s="67"/>
       <c r="G53" s="70"/>
       <c r="H53" s="59"/>
-      <c r="I53" s="128"/>
-      <c r="J53" s="129"/>
-      <c r="K53" s="130"/>
-      <c r="L53" s="128"/>
-      <c r="M53" s="129"/>
+      <c r="I53" s="119"/>
+      <c r="J53" s="117"/>
+      <c r="K53" s="116"/>
+      <c r="L53" s="119"/>
+      <c r="M53" s="117"/>
       <c r="N53" s="67"/>
       <c r="O53" s="68"/>
     </row>
   </sheetData>
   <sheetProtection password="CDCA"/>
   <mergeCells count="146">
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
     <mergeCell ref="K51:M51"/>
     <mergeCell ref="K52:M52"/>
     <mergeCell ref="K53:M53"/>
@@ -4579,115 +4677,19 @@
     <mergeCell ref="K41:M41"/>
     <mergeCell ref="K42:M42"/>
     <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions verticalCentered="1"/>
